--- a/data/driver.xlsx
+++ b/data/driver.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\dashboard\main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D321B4B9-07B5-439A-A893-F00F3734B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0EDCFC-23FF-44CC-91B2-F2E1B8959751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF5D0DD9-4EDB-4727-A9A4-291039BC1395}"/>
   </bookViews>
@@ -83,14 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>송현주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,14 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-5307-2954</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,19 +159,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drvier_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>driver_contact</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drvier_region</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>driver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daejeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +576,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -590,13 +590,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>36</v>
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -624,10 +624,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -638,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -652,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -666,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -680,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -694,10 +694,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -708,10 +708,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -722,10 +722,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -733,13 +733,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -747,13 +747,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -761,13 +761,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -778,10 +778,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -789,13 +789,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -806,10 +806,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
